--- a/xlsx/HBO_intext.xlsx
+++ b/xlsx/HBO_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
   <si>
     <t>HBO</t>
   </si>
@@ -29,19 +29,19 @@
     <t>HBO Asia</t>
   </si>
   <si>
-    <t>政策_政策_美國_HBO</t>
+    <t>政策_政策_美国_HBO</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E8%8F%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>時代華納</t>
+    <t>时代华纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1080i</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%82%8A</t>
   </si>
   <si>
-    <t>黑邊</t>
+    <t>黑边</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Cinemax</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E9%81%B8%E8%A6%96%E8%A8%8A</t>
   </si>
   <si>
-    <t>隨選視訊</t>
+    <t>随选视讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%BA%BF%E7%94%B5%E8%A7%86</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E9%A0%BB%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>寬頻電視</t>
+    <t>宽频电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%98%E8%B4%B9%E7%94%B5%E8%A7%86</t>
@@ -143,43 +143,40 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>衛星電視</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視聯播網</t>
+    <t>电视联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%BD%B1%E9%9B%86</t>
   </si>
   <si>
-    <t>電視影集</t>
+    <t>电视影集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電視電影</t>
+    <t>电视电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E9%8C%84%E7%89%87</t>
   </si>
   <si>
-    <t>紀錄片</t>
+    <t>纪录片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B3%E6%93%8A</t>
   </si>
   <si>
-    <t>拳擊</t>
+    <t>拳击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DVD</t>
@@ -191,19 +188,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%85%89%E5%85%89%E7%A2%9F</t>
   </si>
   <si>
-    <t>藍光光碟</t>
+    <t>蓝光光碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>無線電視</t>
+    <t>无线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E4%B8%8B%E5%9F%8E</t>
@@ -215,13 +212,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E7%B4%90%E6%9B%BC</t>
   </si>
   <si>
-    <t>保羅·紐曼</t>
+    <t>保罗·纽曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%96%B9%E9%81%94</t>
   </si>
   <si>
-    <t>亨利·方達</t>
+    <t>亨利·方达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -245,19 +242,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%81%8A%E9%A8%8E%E5%85%B5%E9%9A%8A</t>
   </si>
   <si>
-    <t>紐約遊騎兵隊</t>
+    <t>纽约游骑兵队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF%E5%8A%A0%E4%BA%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>溫哥華加人隊</t>
+    <t>温哥华加人队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家冰球聯盟</t>
+    <t>国家冰球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>通訊衛星</t>
+    <t>通讯卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E9%98%BF%E9%87%8C</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%C2%B7%E5%BC%97%E9%9B%B7%E6%BE%A4</t>
   </si>
   <si>
-    <t>喬·弗雷澤</t>
+    <t>乔·弗雷泽</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Westar_I</t>
@@ -317,25 +314,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E9%80%8F%E7%B4%8D</t>
   </si>
   <si>
-    <t>泰德·透納</t>
+    <t>泰德·透纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TBS_(%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96%E9%A0%BB%E9%81%93)</t>
   </si>
   <si>
-    <t>TBS (美國電視頻道)</t>
+    <t>TBS (美国电视频道)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E7%89%B9%C2%B7%E7%BE%85%E4%BC%AF%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>派特·羅伯斯頓</t>
+    <t>派特·罗伯斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E5%AE%B6%E5%BA%AD</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E8%AA%BF%E8%89%B2%E6%83%85</t>
   </si>
   <si>
-    <t>軟調色情</t>
+    <t>软调色情</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Terry_Fox_Story</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%85%AC%E5%8F%B8</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E7%95%8C%E5%A5%87%E8%AD%9A</t>
   </si>
   <si>
-    <t>魔界奇譚</t>
+    <t>魔界奇谭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dream_On</t>
@@ -443,25 +440,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E6%8C%87%E5%8D%97</t>
   </si>
   <si>
-    <t>電視指南</t>
+    <t>电视指南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%94%9F%E5%A6%82%E6%88%B2</t>
   </si>
   <si>
-    <t>人生如戲</t>
+    <t>人生如戏</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E9%A0%AD%E8%99%9F%E5%B0%8F%E5%92%96</t>
   </si>
   <si>
-    <t>en-頭號小咖</t>
+    <t>en-头号小咖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E5%AE%B6%E4%B9%9F%E6%9C%89%E5%A4%A7%E6%98%8E%E6%98%9F</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>艾美獎</t>
+    <t>艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%91%E7%8B%B1%E9%A3%8E%E4%BA%91_(%E7%BE%8E%E5%9B%BD%E7%94%B5%E8%A7%86%E5%89%A7)</t>
@@ -491,13 +488,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%BE%8E%E5%A5%AC</t>
   </si>
   <si>
-    <t>艾美奬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%95%AB%E8%B3%AA</t>
   </si>
   <si>
-    <t>高畫質</t>
+    <t>高画质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%BA%BF_(%E7%94%B5%E8%A7%86%E5%89%A7)</t>
@@ -509,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E7%95%AB%E8%B3%AA</t>
   </si>
   <si>
-    <t>標準畫質</t>
+    <t>标准画质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%B6%E5%8C%BA</t>
@@ -521,49 +515,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%9F%E7%AF%A4%E7%AC%91</t>
   </si>
   <si>
-    <t>棟篤笑</t>
+    <t>栋笃笑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%92%E8%A9%B1</t>
   </si>
   <si>
-    <t>髒話</t>
+    <t>脏话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F</t>
   </si>
   <si>
-    <t>華納兄弟</t>
+    <t>华纳兄弟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
-    <t>華納兄弟動畫</t>
+    <t>华纳兄弟动画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B7%9A%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>新線影業</t>
+    <t>新线影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%A0%A1%E7%9F%B3%E5%A8%9B%E6%A8%82%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>城堡石娛樂公司</t>
+    <t>城堡石娱乐公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%96%E7%B4%80%E7%A6%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>二十世紀福斯</t>
+    <t>二十世纪福斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%A4%A9%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
   </si>
   <si>
-    <t>藍天工作室</t>
+    <t>蓝天工作室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E6%8E%A2%E7%85%A7%E7%81%AF%E5%BD%B1%E4%B8%9A</t>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>環球影業</t>
+    <t>环球影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Working_Title_Films</t>
@@ -587,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E9%BB%9E%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>焦點影業</t>
+    <t>焦点影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A2%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>夢工廠</t>
+    <t>梦工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%95%E9%87%91%E7%9F%B3%E5%BD%B1%E4%B8%9A</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/Showtime%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>Showtime電視網</t>
+    <t>Showtime电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ITunes</t>
@@ -635,43 +629,40 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%8B%89%E8%92%99%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>派拉蒙影業</t>
+    <t>派拉蒙影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>華特迪士尼影業</t>
+    <t>华特迪士尼影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E9%87%91%E7%9F%B3%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>試金石影業</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>好萊塢影業</t>
+    <t>好莱坞影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%8B%89%E9%BA%A5%E5%85%8B%E6%96%AF%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>米拉麥克斯影業</t>
+    <t>米拉麦克斯影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E5%BD%B1%E8%A6%96%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>索尼影視娛樂</t>
+    <t>索尼影视娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E9%9B%BB%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>哥倫比亞電影公司</t>
+    <t>哥伦比亚电影公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E7%BB%8F%E5%85%B8%E5%BD%B1%E7%89%87</t>
@@ -695,25 +686,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%BE%8E</t>
   </si>
   <si>
-    <t>聯美</t>
+    <t>联美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E5%AE%89</t>
   </si>
   <si>
-    <t>奧利安</t>
+    <t>奥利安</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E6%88%88%E6%BA%AB%E9%9B%BB%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>塞繆戈溫電影公司</t>
+    <t>塞缪戈温电影公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E9%96%80%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>獅門娛樂</t>
+    <t>狮门娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E6%AC%A1%E4%BB%98%E8%B4%B9%E7%94%B5%E8%A7%86</t>
@@ -725,13 +716,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%81%8A%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>紐約遊騎兵</t>
+    <t>纽约游骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF%E5%8A%A0%E4%BA%BA</t>
   </si>
   <si>
-    <t>溫哥華加人</t>
+    <t>温哥华加人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/America_Undercover</t>
@@ -743,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Los_Angeles_Times</t>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E6%B2%83%E7%89%B9</t>
   </si>
   <si>
-    <t>保羅·沃特</t>
+    <t>保罗·沃特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Deborah_Wright</t>
@@ -869,19 +860,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%B4%8D%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>特納廣播公司</t>
+    <t>特纳广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B4%E6%97%8B%E9%8F%A2_(%E9%9B%BB%E8%A6%96%E9%A0%BB%E9%81%93)</t>
   </si>
   <si>
-    <t>迴旋鏢 (電視頻道)</t>
+    <t>回旋镖 (电视频道)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%80%9A%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>卡通頻道</t>
+    <t>卡通频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Adult_Swim</t>
@@ -911,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/CNN%E5%9C%8B%E9%9A%9B%E6%96%B0%E8%81%9E%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>CNN國際新聞網絡</t>
+    <t>CNN国际新闻网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E6%A2%9D%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>頭條新聞台</t>
+    <t>头条新闻台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NBA_TV</t>
@@ -1301,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/HBO%E5%BC%B7%E6%AA%94%E9%89%85%E7%8D%BB</t>
   </si>
   <si>
-    <t>HBO強檔鉅獻</t>
+    <t>HBO强档钜献</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/HBO_Signature_(Asia)</t>
@@ -1385,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E9%9B%BB%E8%A6%96%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>華納電視頻道</t>
+    <t>华纳电视频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/World_Heritage_Channel</t>
@@ -1505,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%8D%A1%E9%80%9A%E7%B6%B2%E7%B5%A1%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
   </si>
   <si>
-    <t>歐洲卡通網絡工作室</t>
+    <t>欧洲卡通网络工作室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%80%9A%E9%A2%91%E9%81%93%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
@@ -1535,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%86%A0%E8%BB%8D%E6%91%94%E8%A7%92</t>
   </si>
   <si>
-    <t>世界冠軍摔角</t>
+    <t>世界冠军摔角</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Williams_Street</t>
@@ -1649,9 +1640,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%BA%B3%E5%85%84%E5%BC%9F</t>
   </si>
   <si>
-    <t>华纳兄弟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%BA%B3%E5%85%84%E5%BC%9F%E5%8A%A8%E7%94%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
@@ -1685,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E9%9B%BB%E8%A6%96%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>華納兄弟電視公司</t>
+    <t>华纳兄弟电视公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Warner_Bros._International_Television</t>
@@ -1721,7 +1709,7 @@
     <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CW電視網</t>
+    <t>CW电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E5%85%AC%E5%8F%B8</t>
@@ -1745,13 +1733,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E4%BA%92%E5%8B%95%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>華納兄弟互動娛樂</t>
+    <t>华纳兄弟互动娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%96%87%E5%B5%90%E5%A5%87%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>艾薇嵐奇軟體</t>
+    <t>艾薇岚奇软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Monolith_Productions</t>
@@ -1829,19 +1817,16 @@
     <t>https://zh.wikipedia.org/wiki/DC%E6%BC%AB%E7%95%AB</t>
   </si>
   <si>
-    <t>DC漫畫</t>
+    <t>DC漫画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DC%E6%BC%AB%E7%94%BB</t>
   </si>
   <si>
-    <t>DC漫画</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%98%8B%E7%8B%82%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>瘋狂雜誌</t>
+    <t>疯狂杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vertigo_(DC_Comics)</t>
@@ -1871,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%B4%8D%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>特納娛樂</t>
+    <t>特纳娱乐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Turner_Entertainment</t>
@@ -1883,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%B4%8D%E5%B7%B4%E4%BC%AF%E6%8B%89%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
-    <t>漢納巴伯拉動畫</t>
+    <t>汉纳巴伯拉动画</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WaterTower_Music</t>
@@ -2911,7 +2896,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n">
         <v>9</v>
@@ -2937,10 +2922,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2966,10 +2951,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>42</v>
@@ -2995,10 +2980,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -3024,10 +3009,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3053,10 +3038,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>7</v>
@@ -3082,10 +3067,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3111,10 +3096,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3140,10 +3125,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3169,10 +3154,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -3198,10 +3183,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -3227,10 +3212,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3256,10 +3241,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3285,10 +3270,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3314,10 +3299,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3343,10 +3328,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3401,10 +3386,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3430,10 +3415,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3459,10 +3444,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3488,10 +3473,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3517,10 +3502,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3546,10 +3531,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3575,10 +3560,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3604,10 +3589,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" t="s">
         <v>53</v>
-      </c>
-      <c r="F46" t="s">
-        <v>54</v>
       </c>
       <c r="G46" t="n">
         <v>6</v>
@@ -3633,10 +3618,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3662,10 +3647,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3691,10 +3676,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3720,10 +3705,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3749,10 +3734,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3778,10 +3763,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>20</v>
@@ -3807,10 +3792,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3836,10 +3821,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3865,10 +3850,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3894,10 +3879,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3923,10 +3908,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3952,10 +3937,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3981,10 +3966,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4010,10 +3995,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4039,10 +4024,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -4068,10 +4053,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4097,10 +4082,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4126,10 +4111,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4184,10 +4169,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s">
         <v>123</v>
-      </c>
-      <c r="F66" t="s">
-        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4213,10 +4198,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4242,10 +4227,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4271,10 +4256,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4300,10 +4285,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4329,10 +4314,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4358,10 +4343,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4387,10 +4372,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4416,10 +4401,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -4445,10 +4430,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4474,10 +4459,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" t="s">
-        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4503,10 +4488,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
         <v>145</v>
-      </c>
-      <c r="F77" t="s">
-        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4532,10 +4517,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
         <v>147</v>
-      </c>
-      <c r="F78" t="s">
-        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4561,10 +4546,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4590,10 +4575,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4619,10 +4604,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4648,10 +4633,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4677,10 +4662,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4706,10 +4691,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4764,10 +4749,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4793,10 +4778,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4822,10 +4807,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88" t="s">
         <v>109</v>
-      </c>
-      <c r="F88" t="s">
-        <v>110</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -4851,10 +4836,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4880,10 +4865,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" t="s">
         <v>49</v>
-      </c>
-      <c r="F90" t="s">
-        <v>50</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4909,10 +4894,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4938,10 +4923,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" t="s">
         <v>111</v>
-      </c>
-      <c r="F92" t="s">
-        <v>112</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4967,10 +4952,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4996,10 +4981,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -5025,10 +5010,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5054,10 +5039,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5083,10 +5068,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F97" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5112,10 +5097,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5141,10 +5126,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F99" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5170,10 +5155,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F100" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5199,10 +5184,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F101" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5228,10 +5213,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5257,10 +5242,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F103" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5286,10 +5271,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5315,10 +5300,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F105" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5344,10 +5329,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5373,10 +5358,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5402,10 +5387,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5431,10 +5416,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F109" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5460,10 +5445,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5489,10 +5474,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5518,10 +5503,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F112" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5547,10 +5532,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F113" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5576,10 +5561,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5605,10 +5590,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F115" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5634,10 +5619,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5663,10 +5648,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5692,10 +5677,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5721,10 +5706,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5750,10 +5735,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5779,10 +5764,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5808,10 +5793,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5837,10 +5822,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5866,10 +5851,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F124" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5895,10 +5880,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5924,10 +5909,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5953,10 +5938,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5982,10 +5967,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>68</v>
+      </c>
+      <c r="F128" t="s">
         <v>69</v>
-      </c>
-      <c r="F128" t="s">
-        <v>70</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6011,10 +5996,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>70</v>
+      </c>
+      <c r="F129" t="s">
         <v>71</v>
-      </c>
-      <c r="F129" t="s">
-        <v>72</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6040,10 +6025,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F130" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6069,10 +6054,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F131" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -6098,10 +6083,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F132" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6127,10 +6112,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F133" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6156,10 +6141,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F134" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6185,10 +6170,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F135" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6214,10 +6199,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F136" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6243,10 +6228,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F137" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6272,10 +6257,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>142</v>
+      </c>
+      <c r="F138" t="s">
         <v>143</v>
-      </c>
-      <c r="F138" t="s">
-        <v>144</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6301,10 +6286,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F139" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6330,10 +6315,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F140" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6359,10 +6344,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F141" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6388,10 +6373,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F142" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6417,10 +6402,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F143" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6446,10 +6431,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6475,10 +6460,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F145" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6504,10 +6489,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F146" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6533,10 +6518,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F147" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6562,10 +6547,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F148" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6591,10 +6576,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F149" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6620,10 +6605,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F150" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6649,10 +6634,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F151" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6678,10 +6663,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F152" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6707,10 +6692,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F153" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -6736,10 +6721,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F154" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -6765,10 +6750,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F155" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G155" t="n">
         <v>7</v>
@@ -6794,10 +6779,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F156" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6823,10 +6808,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -6852,10 +6837,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F158" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6881,10 +6866,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F159" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6910,10 +6895,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F160" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6939,10 +6924,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F161" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6968,10 +6953,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F162" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6997,10 +6982,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F163" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7026,10 +7011,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F164" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7055,10 +7040,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F165" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7084,10 +7069,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F166" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -7113,10 +7098,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F167" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7142,10 +7127,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F168" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7171,10 +7156,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7200,10 +7185,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F170" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7229,10 +7214,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F171" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7258,10 +7243,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7287,10 +7272,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F173" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7316,10 +7301,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F174" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7345,10 +7330,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7374,10 +7359,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F176" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7403,10 +7388,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F177" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7432,10 +7417,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7461,10 +7446,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F179" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7490,10 +7475,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F180" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7519,10 +7504,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F181" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7548,10 +7533,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F182" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7577,10 +7562,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F183" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7606,10 +7591,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F184" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7635,10 +7620,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F185" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7664,10 +7649,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F186" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7693,10 +7678,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F187" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7722,10 +7707,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F188" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7751,10 +7736,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F189" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7780,10 +7765,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F190" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7809,10 +7794,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7838,10 +7823,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7867,10 +7852,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7896,10 +7881,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7925,10 +7910,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7954,10 +7939,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7983,10 +7968,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8012,10 +7997,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F198" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8041,10 +8026,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F199" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G199" t="n">
         <v>5</v>
@@ -8070,10 +8055,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F200" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8099,10 +8084,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F201" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8128,10 +8113,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F202" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8157,10 +8142,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F203" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8186,10 +8171,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F204" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8215,10 +8200,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F205" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8244,10 +8229,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F206" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8273,10 +8258,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8302,10 +8287,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8331,10 +8316,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8360,10 +8345,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8389,10 +8374,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8418,10 +8403,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8447,10 +8432,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8476,10 +8461,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8505,10 +8490,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8534,10 +8519,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8563,10 +8548,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8592,10 +8577,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8621,10 +8606,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8650,10 +8635,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8679,10 +8664,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8708,10 +8693,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8737,10 +8722,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8766,10 +8751,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8795,10 +8780,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8824,10 +8809,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8882,10 +8867,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F228" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8911,10 +8896,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F229" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8940,10 +8925,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F230" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8969,10 +8954,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F231" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8998,10 +8983,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F232" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9027,10 +9012,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F233" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9056,10 +9041,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F234" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9085,10 +9070,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9114,10 +9099,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F236" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9143,10 +9128,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F237" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9172,10 +9157,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F238" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9201,10 +9186,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9230,10 +9215,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F240" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9259,10 +9244,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F241" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9288,10 +9273,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F242" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -9317,10 +9302,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F243" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G243" t="n">
         <v>4</v>
@@ -9346,10 +9331,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F244" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9375,10 +9360,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F245" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9404,10 +9389,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9433,10 +9418,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9462,10 +9447,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9491,10 +9476,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F249" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9520,10 +9505,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F250" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9549,10 +9534,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9578,10 +9563,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F252" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9607,10 +9592,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F253" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9636,10 +9621,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F254" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9665,10 +9650,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F255" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9694,10 +9679,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F256" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9723,10 +9708,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F257" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9752,10 +9737,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F258" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9781,10 +9766,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F259" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9810,10 +9795,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F260" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9839,10 +9824,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F261" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9868,10 +9853,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F262" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9897,10 +9882,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F263" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9926,10 +9911,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F264" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9955,10 +9940,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F265" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9984,10 +9969,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F266" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10013,10 +9998,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F267" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10042,10 +10027,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F268" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10071,10 +10056,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F269" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10100,10 +10085,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F270" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10129,10 +10114,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F271" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10158,10 +10143,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F272" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10187,10 +10172,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F273" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10216,10 +10201,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F274" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10245,10 +10230,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F275" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10274,10 +10259,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F276" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10303,10 +10288,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F277" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10332,10 +10317,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F278" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10361,10 +10346,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F279" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10390,10 +10375,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F280" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10419,10 +10404,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F281" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10448,10 +10433,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F282" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10477,10 +10462,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F283" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10506,10 +10491,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F284" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10535,10 +10520,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F285" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10564,10 +10549,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F286" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10593,10 +10578,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F287" t="s">
-        <v>544</v>
+        <v>170</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10622,10 +10607,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10651,10 +10636,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F289" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10680,10 +10665,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F290" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10709,10 +10694,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F291" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10738,10 +10723,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F292" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10767,10 +10752,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F293" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10796,10 +10781,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F294" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10825,10 +10810,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F295" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -10854,10 +10839,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F296" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G296" t="n">
         <v>5</v>
@@ -10883,10 +10868,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F297" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -10912,10 +10897,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F298" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10941,10 +10926,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F299" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10970,10 +10955,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F300" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10999,10 +10984,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F301" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11028,10 +11013,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F302" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11057,10 +11042,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F303" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11086,10 +11071,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F304" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11144,10 +11129,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F306" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11173,10 +11158,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F307" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11202,10 +11187,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F308" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11231,10 +11216,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F309" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11260,10 +11245,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F310" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11289,10 +11274,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F311" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11318,10 +11303,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F312" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11347,10 +11332,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F313" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11376,10 +11361,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F314" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11405,10 +11390,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F315" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11434,10 +11419,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F316" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11463,10 +11448,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F317" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11492,10 +11477,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F318" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11521,10 +11506,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F319" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11550,10 +11535,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F320" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11579,10 +11564,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F321" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11608,10 +11593,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F322" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11637,10 +11622,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F323" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11666,10 +11651,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F324" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11695,10 +11680,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F325" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11724,10 +11709,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F326" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11753,10 +11738,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F327" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11782,10 +11767,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F328" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11811,10 +11796,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F329" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11840,10 +11825,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F330" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11869,10 +11854,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F331" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11898,10 +11883,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F332" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11956,10 +11941,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F334" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -11985,10 +11970,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F335" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12014,10 +11999,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F336" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12043,10 +12028,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F337" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12072,10 +12057,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F338" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12130,10 +12115,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F340" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12159,10 +12144,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F341" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
